--- a/biology/Botanique/Hybrides_Fragaria_×_Potentilla/Hybrides_Fragaria_×_Potentilla.xlsx
+++ b/biology/Botanique/Hybrides_Fragaria_×_Potentilla/Hybrides_Fragaria_×_Potentilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hybrides_Fragaria_%C3%97_Potentilla</t>
+          <t>Hybrides_Fragaria_×_Potentilla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article traite des hybrides venant du croisement d'un Fragaria avec une espèce du groupe des "potentilles" (Comarum, Dasiphora, Potentilla).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hybrides_Fragaria_%C3%97_Potentilla</t>
+          <t>Hybrides_Fragaria_×_Potentilla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières générations d'hybridations à but commercial ont commencé en 1966. Le but était d'obtenir des fraisiers aux fleurs roses et aux fruits proches des fraises de jardin. Les premiers clones ont été commercialisés en 1989 avec la variété 'Pink Panda'.
 D'autres obtenteurs ont suivi et le nombre de variétés atteint à présent une vingtaine avec des fleurs rose plus ou moins foncé jusqu'à presque rouge et les hybrides les plus récents ont des fruits de qualité pratiquement commerciale. Les plantes sont vigoureuses et se multiplient facilement par stolons.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hybrides_Fragaria_%C3%97_Potentilla</t>
+          <t>Hybrides_Fragaria_×_Potentilla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pink Panda (syn. Frel) : première génération produite en 1966 commercialisée en 1989. Hybride Fragaria × ananassa cuneifolia - Comarum palustre. Les fleurs sont rose franc et la production fruitière est faible. La plante est utilisée dans un but ornemental.
 AC-Roseberry : une des dernières productions. Fleurs rose franc, fruits moyens à gros, bien parfumés. Plantes de jours neutres.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hybrides_Fragaria_%C3%97_Potentilla</t>
+          <t>Hybrides_Fragaria_×_Potentilla</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fragaria × Comarum palustre (2n=6x=42) - Le fraisier mis à contribution en parent femelle est soit Fragaria ×ananassa ou chiloense, soit moschata, soit vesca ou vesca semperflorens. Le taux de réussite est de 0,10 % après la première année de culture. L'hybride obtenu sera généralement heptaploïde (2n=7x=49) avec 4 génomes de Fragaria et 3 de Comarum. De multiples rétrocroisement sont mis en œuvre pour transférer les gènes de "couleurs rose des fleurs" et ceux de "fruits comestibles" sur la même plante.
 Autres hybrides :
